--- a/biology/Botanique/Rhum_de_Guyane/Rhum_de_Guyane.xlsx
+++ b/biology/Botanique/Rhum_de_Guyane/Rhum_de_Guyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhum de Guyane fait partie de ces institutions culturelles liées à la culture créole guyanaise profonde, depuis les premières plantations de canne à sucre.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1930, 17 distilleries [1] sont implantées en Guyane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1930, 17 distilleries  sont implantées en Guyane.
 Dans les années 80, Jean MARSOLLE relance la production de Rhum dans la région de Saint-Laurent-du-Maroni.
 Aujourd'hui sur ce département, une seule distillerie produit du rhum agricole. Depuis le 22 janvier 2015, certains rhums français ont obtenu l’IGP (indication géographique protégée). il s'agit des :
 « Rhum de la Guadeloupe » ou « Rhum de Guadeloupe » ou « Rhum Guadeloupe »
@@ -521,7 +535,7 @@
 « Rhum agricole de la Guyane » ou « Rhum agricole de Guyane » ou « Rhum agricole Guyane »
 « Rhum de la baie du Galion » ou « Rhum Baie du Galion »
 « Rhum des Antilles françaises »
-« Rhum des départements français d’outre-mer » ou « Rhum de l’outre-mer français »[1].</t>
+« Rhum des départements français d’outre-mer » ou « Rhum de l’outre-mer français ».</t>
         </is>
       </c>
     </row>
@@ -549,7 +563,9 @@
           <t>Lieu de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Distillerie Saint-Maurice Saint-Laurent-du-Maroni
 rhum Saint-Maurice.</t>
